--- a/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data2_WB.xlsx
+++ b/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data2_WB.xlsx
@@ -1302,7 +1302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="162">
   <si>
     <t xml:space="preserve">Категория продавца</t>
   </si>
@@ -1562,18 +1562,27 @@
     <t xml:space="preserve">Термонаклейка Бабочка зеленная листья</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738652399</t>
+  </si>
+  <si>
     <t xml:space="preserve">butterfly_green_leaves_vert_1</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мотылек Луна</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738651917</t>
+  </si>
+  <si>
     <t xml:space="preserve">butterfly_moon_gold1_vert_1</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Черный Кот в цветах</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738652561</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat_head_d1_vert</t>
   </si>
   <si>
@@ -1589,22 +1598,34 @@
     <t xml:space="preserve">Термонаклейка Кот цветы внутри</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738652819</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat_vert_1</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Белый Кот в цветах</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738652966</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat1_f1_versB_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Лотос розовый золотистый</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738651921</t>
+  </si>
+  <si>
     <t xml:space="preserve">flower_pink1_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Цветы Синий Акварель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1738651684</t>
   </si>
   <si>
     <t xml:space="preserve">flowers_abc1_vert</t>
@@ -1642,70 +1663,106 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738652745</t>
+  </si>
+  <si>
     <t xml:space="preserve">flowers_pinks12_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девочка и Лиса</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738653148</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_and_fox1_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка Венок Луна Акварель</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738652147</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_flowers_planet_venok_vert_1</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка Волосы Бабочки</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738651416</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_head_butterflys_de1_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка Природа Силует</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738652486</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_head_forest_green_vert1</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка Маска Доберман Собака</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738652902</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_headwolf_ad_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка Аниме Япония Красное Солнце</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738651525</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_redsun_japan1_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка Силует Закат</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738651975</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_sunset_vert_1</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка Силует Акварель Лес</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738652367</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_whiteblack_forest_vert_1</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Сердце Букет Цветы</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738652490</t>
+  </si>
+  <si>
     <t xml:space="preserve">heart_flowers_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Сердце Море Силует</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738651926</t>
+  </si>
+  <si>
     <t xml:space="preserve">heart_ocean1_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Белая Лошадь Цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1738651871</t>
   </si>
   <si>
     <t xml:space="preserve">horse_white1_vert</t>
@@ -1743,6 +1800,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738652535</t>
+  </si>
+  <si>
     <t xml:space="preserve">seashell_a1_vert</t>
   </si>
   <si>
@@ -1768,22 +1828,35 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738651613</t>
+  </si>
+  <si>
     <t xml:space="preserve">sunflower_v1_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Черепаха Цветы на панцире</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738652063</t>
+  </si>
+  <si>
     <t xml:space="preserve">turtle_t1_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка и 2 ласточки</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1738651829</t>
+  </si>
+  <si>
     <t xml:space="preserve">two_birds_face_girl_eyes1_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Кит в Цветах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1738652878
+</t>
   </si>
   <si>
     <t xml:space="preserve">whale2_vert1</t>
@@ -1996,7 +2069,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2087,6 +2160,10 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2190,7 +2267,7 @@
   <dimension ref="A1:BU1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2602,8 +2679,11 @@
       <c r="B3" s="10" t="s">
         <v>85</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>86</v>
+      </c>
       <c r="D3" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B3, ".pdf")</f>
@@ -2769,10 +2849,13 @@
         <v>72</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B4, ".pdf")</f>
@@ -2938,10 +3021,13 @@
         <v>72</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E5" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B5, ".pdf")</f>
@@ -3107,13 +3193,13 @@
         <v>72</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E6" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B6, ".pdf")</f>
@@ -3279,10 +3365,13 @@
         <v>72</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E7" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B7, ".pdf")</f>
@@ -3448,10 +3537,13 @@
         <v>72</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E8" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B8, ".pdf")</f>
@@ -3617,10 +3709,13 @@
         <v>72</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>104</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E9" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B9, ".pdf")</f>
@@ -3786,10 +3881,13 @@
         <v>72</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E10" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B10, ".pdf")</f>
@@ -3955,10 +4053,13 @@
         <v>72</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>110</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E11" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B11, ".pdf")</f>
@@ -4124,10 +4225,13 @@
         <v>72</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>104</v>
+        <v>112</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E12" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B12, ".pdf")</f>
@@ -4293,10 +4397,13 @@
         <v>72</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E13" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B13, ".pdf")</f>
@@ -4462,10 +4569,13 @@
         <v>72</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>108</v>
+        <v>118</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E14" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B14, ".pdf")</f>
@@ -4631,10 +4741,13 @@
         <v>72</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>110</v>
+        <v>121</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E15" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B15, ".pdf")</f>
@@ -4800,10 +4913,13 @@
         <v>72</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>112</v>
+        <v>124</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E16" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B16, ".pdf")</f>
@@ -4969,10 +5085,13 @@
         <v>72</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>114</v>
+        <v>127</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E17" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B17, ".pdf")</f>
@@ -5138,10 +5257,13 @@
         <v>72</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E18" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B18, ".pdf")</f>
@@ -5307,10 +5429,13 @@
         <v>72</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>118</v>
+        <v>133</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E19" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B19, ".pdf")</f>
@@ -5476,10 +5601,13 @@
         <v>72</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>120</v>
+        <v>136</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E20" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B20, ".pdf")</f>
@@ -5645,10 +5773,13 @@
         <v>72</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>122</v>
+        <v>139</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E21" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B21, ".pdf")</f>
@@ -5814,10 +5945,13 @@
         <v>72</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>124</v>
+        <v>142</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E22" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B22, ".pdf")</f>
@@ -5983,10 +6117,13 @@
         <v>72</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>146</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E23" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B23, ".pdf")</f>
@@ -6152,10 +6289,13 @@
         <v>72</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>128</v>
+        <v>148</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>149</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E24" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B24, ".pdf")</f>
@@ -6321,10 +6461,13 @@
         <v>72</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>130</v>
+        <v>151</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>152</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E25" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B25, ".pdf")</f>
@@ -6490,10 +6633,13 @@
         <v>72</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>132</v>
+        <v>154</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>155</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E26" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B26, ".pdf")</f>
@@ -6659,10 +6805,13 @@
         <v>72</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>134</v>
+        <v>157</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="E27" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", B27, ".pdf")</f>
@@ -6824,139 +6973,139 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23"/>
+      <c r="A41" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
     </row>
     <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
     </row>
     <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
     </row>
     <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
     </row>
     <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
     </row>
     <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
     </row>
     <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
     </row>
     <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
     </row>
     <row r="52" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
     </row>
     <row r="53" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23"/>
+      <c r="A53" s="24"/>
     </row>
     <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="23"/>
+      <c r="A54" s="24"/>
     </row>
     <row r="55" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
     </row>
     <row r="56" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="23"/>
+      <c r="A56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="23"/>
+      <c r="A57" s="24"/>
     </row>
     <row r="58" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="23"/>
+      <c r="A58" s="24"/>
     </row>
     <row r="59" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
     </row>
     <row r="60" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
     </row>
     <row r="61" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
     </row>
     <row r="62" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
     </row>
     <row r="63" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
     </row>
     <row r="64" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="23"/>
+      <c r="A64" s="24"/>
     </row>
     <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="23"/>
+      <c r="A65" s="24"/>
     </row>
     <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="23"/>
+      <c r="A66" s="24"/>
     </row>
     <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="23"/>
+      <c r="A67" s="24"/>
     </row>
     <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
     </row>
     <row r="69" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="23"/>
+      <c r="A69" s="24"/>
     </row>
     <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="23"/>
+      <c r="A70" s="24"/>
     </row>
     <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="23"/>
+      <c r="A71" s="24"/>
     </row>
     <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="23"/>
+      <c r="A72" s="24"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7086,1019 +7235,1019 @@
   <sheetData>
     <row r="2" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="11" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
